--- a/biology/Zoologie/Geomys/Geomys.xlsx
+++ b/biology/Zoologie/Geomys/Geomys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geomys est un genre de rongeurs faisant partie de la famille des Géomyidés qui rassemble des gaufres ou rats à poche, c'est-à-dire à abajoues. Les individus de ce genre sont appelés en français des géomys ou gaufres à poche[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geomys est un genre de rongeurs faisant partie de la famille des Géomyidés qui rassemble des gaufres ou rats à poche, c'est-à-dire à abajoues. Les individus de ce genre sont appelés en français des géomys ou gaufres à poche.
 Ce genre a été décrit pour la première fois en 1817 par Constantine Samuel Rafinesque (1783-1840), un naturaliste et un archéologue américain d'origine franco-germano-italienne.
 </t>
         </is>
@@ -512,19 +524,21 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (1 juin 2016)[2] :
-Geomys arenarius Merriam, 1895 - Géomys du désert[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (1 juin 2016) :
+Geomys arenarius Merriam, 1895 - Géomys du désert
 Geomys attwateri Merriam, 1895
 Geomys breviceps Baird, 1855
-Geomys bursarius (Shaw, 1800) - Gaufre brun[1] ou Gaufre à poche[1],[3]
+Geomys bursarius (Shaw, 1800) - Gaufre brun ou Gaufre à poche,
 Geomys knoxjonesi Baker &amp; Genoways, 1975
 Geomys personatus True, 1889
-Geomys pinetis Rafinesque, 1817 - Gaufre à poche du Sud-Est[1]
+Geomys pinetis Rafinesque, 1817 - Gaufre à poche du Sud-Est
 Geomys texensis Merriam, 1895
 Geomys tropicalis Goldman, 1915
-Selon ITIS      (1 juin 2016)[4] :
+Selon ITIS      (1 juin 2016) :
 Geomys arenarius Merriam, 1895
 Geomys attwateri Merriam, 1895
 Geomys breviceps Baird, 1855
@@ -536,7 +550,7 @@
 Geomys pinetis Rafinesque, 1817
 Geomys texensis Merriam, 1895
 Geomys tropicalis Goldman, 1915
-Selon NCBI  (1 juin 2016)[5] :
+Selon NCBI  (1 juin 2016) :
 Geomys arenarius
 Geomys attwateri
 Geomys breviceps
@@ -551,7 +565,7 @@
 Geomys streckeri
 Geomys texensis
 Geomys tropicalis
-Selon Paleobiology Database                   (1 juin 2016)[6] :
+Selon Paleobiology Database                   (1 juin 2016) :
 Geomys adamsi
 Geomys bursarius
 Geomys carranzai
